--- a/SectionA/Data_driven/Register/SecA_reg_data.xlsx
+++ b/SectionA/Data_driven/Register/SecA_reg_data.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J2" sqref="J2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/SectionA/Data_driven/Register/SecA_reg_data.xlsx
+++ b/SectionA/Data_driven/Register/SecA_reg_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -525,10 +525,10 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J2" sqref="J2:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col width="23" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="11.83203125" bestFit="1" customWidth="1" min="5" max="5"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
           <t>MissedField</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -1221,7 +1221,7 @@
           <t>LengthPwdError</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -1269,7 +1269,7 @@
           <t>MissedField</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -1321,7 +1321,7 @@
           <t>PwdNotMatch</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -1369,7 +1369,7 @@
           <t>MissedField</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
